--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325901.034300573</v>
+        <v>3325901.034300575</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177275</v>
+        <v>3940022.790763143</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177275</v>
+        <v>3940022.790763143</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577437</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
         <v>347.8590406130752</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1533,19 +1533,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2007,67 +2007,67 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E20" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
         <v>404.8896287080119</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U26" t="n">
         <v>648.751427201877</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287078554</v>
       </c>
       <c r="G29" t="n">
-        <v>396.495661161745</v>
+        <v>396.4956611619018</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129188</v>
@@ -2854,7 +2854,7 @@
         <v>560.9649184118246</v>
       </c>
       <c r="U29" t="n">
-        <v>648.751427201877</v>
+        <v>648.7514272017206</v>
       </c>
       <c r="V29" t="n">
         <v>629.8510241666675</v>
@@ -2897,7 +2897,7 @@
         <v>301.8178796390949</v>
       </c>
       <c r="I30" t="n">
-        <v>108.929687778141</v>
+        <v>108.9296877779845</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>352.1613821978832</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151047943</v>
+        <v>406.659215104951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777347</v>
@@ -2958,64 +2958,64 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C32" t="n">
         <v>449.4745782429939</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3447,43 +3447,43 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3574,7 +3574,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y38" t="n">
         <v>511.3174326828064</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U41" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V41" t="n">
         <v>629.8510241668239</v>
@@ -3811,7 +3811,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
         <v>511.3174326828064</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C44" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4336,25 +4336,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>1713.790319599031</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L2" t="n">
-        <v>2631.383042915614</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
         <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4536,10 +4536,10 @@
         <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4573,22 +4573,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P5" t="n">
         <v>6474.295852434775</v>
@@ -4740,13 +4740,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>426.6131206966359</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4813,22 +4813,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4944,46 +4944,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.96</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="C10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,19 +5023,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
         <v>492.3327682960356</v>
@@ -5044,28 +5044,28 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>938.1187228621205</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>1677.76186642996</v>
       </c>
       <c r="L11" t="n">
-        <v>3071.357825473565</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987068</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5077,22 +5077,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
         <v>140.96</v>
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5284,10 +5284,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
         <v>3071.357825473565</v>
@@ -5311,25 +5311,25 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5418,25 +5418,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I16" t="n">
         <v>140.96</v>
@@ -5478,16 +5478,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>3329.005460464689</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N17" t="n">
-        <v>3894.048524337361</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P17" t="n">
         <v>6474.295852434775</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5715,16 +5715,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,49 +5761,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L20" t="n">
-        <v>2631.383042915614</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5952,16 +5952,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5998,49 +5998,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>3797.935015773446</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>4280.114215286949</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N23" t="n">
-        <v>4845.157279159621</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100365</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>5987.71793717156</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6183,22 +6183,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="26">
@@ -6208,52 +6208,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>2814.780508913348</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N26" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.978455726764</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P26" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6262,22 +6262,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547235</v>
+        <v>2578.759347547393</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049419</v>
+        <v>2124.744622049578</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352759</v>
+        <v>1710.260626352918</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859073252</v>
+        <v>1301.81285907341</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361360241</v>
+        <v>892.8334361361824</v>
       </c>
       <c r="G29" t="n">
         <v>492.3327682958776</v>
@@ -6469,28 +6469,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L29" t="n">
-        <v>3797.935015773446</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M29" t="n">
-        <v>4280.114215286949</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N29" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6502,19 +6502,19 @@
         <v>6116.713394464321</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543233</v>
+        <v>5461.408922543391</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819326</v>
+        <v>4825.195766819485</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909436</v>
+        <v>4180.374073909595</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666496</v>
+        <v>3582.109595666654</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431496</v>
+        <v>3065.627340431654</v>
       </c>
     </row>
     <row r="30">
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034234955</v>
+        <v>2287.112034234797</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647926508</v>
+        <v>1922.36464792635</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939088</v>
+        <v>1570.91243893893</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.77900740196</v>
+        <v>1224.779007401802</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959497172</v>
+        <v>881.7120959495592</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327446827</v>
+        <v>555.8565327445247</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876545298</v>
       </c>
       <c r="I30" t="n">
         <v>140.96</v>
@@ -6575,25 +6575,25 @@
         <v>5569.989306374305</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422430068</v>
+        <v>5159.22242242991</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.56467406872</v>
+        <v>4762.564674068562</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619041436</v>
+        <v>4358.520619041277</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975413796</v>
+        <v>3939.822975413637</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020187</v>
+        <v>3503.082427020029</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649802782</v>
+        <v>3078.978649802624</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000544218</v>
+        <v>2675.55300054406</v>
       </c>
     </row>
     <row r="31">
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
         <v>140.96</v>
@@ -6663,16 +6663,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,52 +6682,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L32" t="n">
-        <v>2257.013012360075</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M32" t="n">
-        <v>3788.860546968407</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N32" t="n">
-        <v>4353.903610841079</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O32" t="n">
-        <v>5264.058493781823</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P32" t="n">
-        <v>6099.925821879237</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6903,13 +6903,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6946,10 +6946,10 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M35" t="n">
         <v>4163.230577523946</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7131,22 +7131,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7177,31 +7177,31 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2758.60299862014</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7222,10 +7222,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I40" t="n">
         <v>140.96</v>
@@ -7374,16 +7374,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7417,19 +7417,19 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1929.233537634604</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O41" t="n">
         <v>5638.428524337362</v>
@@ -7450,13 +7450,13 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
         <v>3583.51196363841</v>
@@ -7551,25 +7551,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I43" t="n">
         <v>140.96</v>
@@ -7611,16 +7611,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
         <v>2126.146990020859</v>
@@ -7651,31 +7651,31 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2046.117175397607</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>2963.70989871419</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M44" t="n">
-        <v>3445.889098227693</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4010.932162100365</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D46" t="n">
         <v>140.96</v>
@@ -7842,22 +7842,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
-        <v>301.7997308240091</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8221,13 +8221,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>61.18810711406104</v>
       </c>
       <c r="L5" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>265.4073538855536</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>822.5705182964548</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>315.9139665186112</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>519.4191429811532</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>842.6516333931879</v>
+        <v>567.8446588919046</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>301.799730824009</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>763.2599394199324</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>491.4928437002173</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9889,22 +9889,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>378.1515460156958</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>864.282983673457</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="L29" t="n">
-        <v>332.9552028337757</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -10375,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.2158265843858</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="R32" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633165826</v>
+        <v>301.799730824009</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>931.7660397881849</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>89.11440639499688</v>
       </c>
       <c r="L41" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>713.835238741531</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C13" t="n">
         <v>272.7252466480447</v>
@@ -23433,7 +23433,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F13" t="n">
-        <v>274.3828559677419</v>
+        <v>109.1700674243155</v>
       </c>
       <c r="G13" t="n">
         <v>242.4092826775956</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E16" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F16" t="n">
         <v>274.3828559677419</v>
@@ -23679,7 +23679,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>131.3616658174982</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C19" t="n">
         <v>272.7252466480447</v>
@@ -23955,7 +23955,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
-        <v>131.3616658174982</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
         <v>226.3728098387097</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24390,7 +24390,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>33.55489271692969</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344290943849</v>
+        <v>1.388344290787188</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699954000213</v>
+        <v>1.533699953843495</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C31" t="n">
-        <v>107.5124581046183</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D31" t="n">
         <v>285.5362180555555</v>
@@ -24903,7 +24903,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25572,10 +25572,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25812,7 +25812,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>33.9575216727898</v>
+        <v>131.3616658174982</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C44" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D46" t="n">
-        <v>285.5362180555555</v>
+        <v>120.3234295121291</v>
       </c>
       <c r="E46" t="n">
         <v>280.9809048369565</v>
@@ -26082,7 +26082,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
         <v>150.8146863564251</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961383</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986755</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012126</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.94460265019</v>
+        <v>4808665.190726486</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517911</v>
+        <v>5908507.064350937</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770803</v>
+        <v>7008348.937975383</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.811599827</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.68522427</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152948</v>
+        <v>10307874.55884871</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.313457822</v>
+        <v>11407716.43247348</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.0416003509</v>
+        <v>12507558.30609792</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.7697428798</v>
+        <v>13607400.17972238</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.4978854089</v>
+        <v>14707242.05334684</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.2260279381</v>
+        <v>15807083.9269713</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.9541704672</v>
+        <v>16906925.80059577</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>976017.2062577609</v>
+      </c>
+      <c r="C2" t="n">
         <v>976017.2062577608</v>
-      </c>
-      <c r="C2" t="n">
-        <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
         <v>976017.2062577606</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="F2" t="n">
         <v>874233.2841630249</v>
@@ -26337,31 +26337,31 @@
         <v>874233.2841630249</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630251</v>
       </c>
       <c r="I2" t="n">
         <v>874233.284163025</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632679</v>
+        <v>874233.2841632826</v>
       </c>
       <c r="L2" t="n">
         <v>874233.2841630247</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="N2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.284163025</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630247</v>
       </c>
     </row>
     <row r="3">
@@ -26441,31 +26441,31 @@
         <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309946</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.19966327316</v>
+        <v>26356.19966328369</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="O4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
     </row>
     <row r="5">
@@ -26530,13 +26530,13 @@
         <v>-1342937.334628471</v>
       </c>
       <c r="C6" t="n">
-        <v>702063.6164260102</v>
+        <v>702063.6164260103</v>
       </c>
       <c r="D6" t="n">
         <v>702365.9770959432</v>
       </c>
       <c r="E6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999254</v>
       </c>
       <c r="F6" t="n">
         <v>708897.6844999255</v>
@@ -26545,28 +26545,28 @@
         <v>708897.6844999255</v>
       </c>
       <c r="H6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999256</v>
       </c>
       <c r="I6" t="n">
         <v>708897.6844999255</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992529</v>
+        <v>88673.68449992541</v>
       </c>
       <c r="K6" t="n">
-        <v>708897.6844999949</v>
+        <v>708897.6844999989</v>
       </c>
       <c r="L6" t="n">
         <v>708897.6844999252</v>
       </c>
       <c r="M6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="N6" t="n">
         <v>708897.6844999255</v>
       </c>
       <c r="O6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="P6" t="n">
         <v>708897.6844999252</v>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27732,7 +27732,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X4" t="n">
-        <v>398.6086814110912</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
         <v>287.4653528494624</v>
@@ -27936,16 +27936,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>227.6188561872211</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28140,10 +28140,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287.1138003370787</v>
+        <v>400</v>
       </c>
       <c r="C10" t="n">
-        <v>272.7252466480447</v>
+        <v>311.004082966107</v>
       </c>
       <c r="D10" t="n">
         <v>285.5362180555555</v>
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29698,7 +29698,7 @@
         <v>1.564330887049437e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.564330887049437e-10</v>
       </c>
       <c r="V29" t="n">
         <v>1.564330887049437e-10</v>
@@ -29741,7 +29741,7 @@
         <v>1.564330887049437e-10</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.564330887049437e-10</v>
       </c>
       <c r="J30" t="n">
         <v>1.564330887049437e-10</v>
@@ -34828,16 +34828,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>1048.91401725617</v>
+        <v>1063.028252950772</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>150.9965757542561</v>
+        <v>302.1616117352398</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -35028,7 +35028,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -35065,13 +35065,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>808.3023935462218</v>
       </c>
       <c r="L5" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35083,7 +35083,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
@@ -35232,16 +35232,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35323,7 +35323,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35436,10 +35436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>112.8861996629213</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>38.27883631806233</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,22 +35536,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>728.8590159821719</v>
       </c>
       <c r="K11" t="n">
         <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1749.431854979872</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35560,7 +35560,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1242.775303202028</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36010,28 +36010,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>1006.468839459439</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>1762</v>
+        <v>1487.193025498716</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36253,13 +36253,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>1228.661067507426</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36490,10 +36490,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>1690.12127610335</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>952.9277020862996</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,34 +36721,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>948.9021155840516</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1708.593416095087</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36961,16 +36961,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>1048.91401725617</v>
       </c>
       <c r="L29" t="n">
-        <v>1259.816539517193</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -36985,7 +36985,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,16 +37195,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>1547.320742028618</v>
@@ -37219,10 +37219,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>957.6506849704682</v>
+        <v>763.2345892100915</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37438,13 +37438,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>1228.661067507426</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37669,19 +37669,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
-        <v>1418.815736266471</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>836.2286928271576</v>
       </c>
       <c r="L41" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,7 +37924,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
@@ -38143,16 +38143,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1460.949525173692</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38161,7 +38161,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
